--- a/client_account/test_Excel/アカウントリスト_結合テスト.xlsx
+++ b/client_account/test_Excel/アカウントリスト_結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\test_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B2B2C-883E-4C4C-B7AC-9AB12D3E221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231F9BCE-2BE2-4FFA-A485-F4B5E8571746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="0" windowWidth="11280" windowHeight="14440" activeTab="1" xr2:uid="{D88E3CF9-453A-45C1-B7C1-523AF5F19E5E}"/>
+    <workbookView xWindow="210" yWindow="430" windowWidth="20620" windowHeight="14010" activeTab="1" xr2:uid="{D88E3CF9-453A-45C1-B7C1-523AF5F19E5E}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>＃</t>
     <phoneticPr fontId="3"/>
@@ -399,6 +399,19 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>性別が要求通りに表示されない</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヨウキュウドオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -584,14 +597,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,10 +938,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -964,7 +977,7 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="8">
@@ -2084,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFDBAF-CE5D-48B6-830E-EE5F95EAE248}">
   <dimension ref="A2:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2100,10 +2113,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2139,7 +2152,7 @@
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8">
@@ -2160,7 +2173,7 @@
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="8">
@@ -2181,7 +2194,7 @@
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="8">
@@ -2202,7 +2215,7 @@
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="8">
@@ -2223,7 +2236,7 @@
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="8">
@@ -2244,7 +2257,7 @@
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="8">
@@ -2265,7 +2278,7 @@
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="8">
@@ -2274,7 +2287,9 @@
       <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="10" t="s">
         <v>8</v>
       </c>
@@ -2286,7 +2301,7 @@
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="8">
@@ -2307,7 +2322,7 @@
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="8">
@@ -2328,7 +2343,7 @@
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="8">
@@ -2349,7 +2364,7 @@
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="8">
@@ -2368,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="18"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="11"/>
@@ -2379,7 +2394,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="18"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="11"/>
